--- a/biology/Zoologie/Course_de_chiens_de_traîneaux/Course_de_chiens_de_traîneaux.xlsx
+++ b/biology/Zoologie/Course_de_chiens_de_traîneaux/Course_de_chiens_de_traîneaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Course_de_chiens_de_tra%C3%AEneaux</t>
+          <t>Course_de_chiens_de_traîneaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Une course de chiens de traîneaux est une compétition sportive désignant une course dans laquelle des attelages de chiens d'attelage tirent des traîneaux conduit par un musher sur la neige ou la glace au moyen de harnais et des lignes de trait. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Course_de_chiens_de_tra%C3%AEneaux</t>
+          <t>Course_de_chiens_de_traîneaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Compétitions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sport a été sport de démonstration lors des Jeux olympiques de 1932 à Lake Placid.
 </t>
